--- a/earlywarning-pom/earlywarning-config/src/baf-instances/40_Inst_Workspace_ALEX.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/40_Inst_Workspace_ALEX.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD 500 Gb/Documenti Michele/Lavoro/configurazione ALEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="460" windowWidth="20620" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="2040" yWindow="465" windowWidth="20625" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,16 +988,16 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1073,15 +1073,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1092,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1167,16 +1168,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1187,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1272,15 +1273,16 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1292,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1365,18 +1367,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="10" max="13" width="11.6640625" customWidth="1"/>
+    <col min="10" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
